--- a/biology/Botanique/Lobélie_érine/Lobélie_érine.xlsx
+++ b/biology/Botanique/Lobélie_érine/Lobélie_érine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lob%C3%A9lie_%C3%A9rine</t>
+          <t>Lobélie_érine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lobelia erinus
-La Lobélie érine (Lobelia erinus) est une plante vivace buissonnante ou retombante, de la famille des Campanulaceae, sous-famille des Lobelioideae, cultivée comme annuelle. Elle est originaire d'Afrique de l'Est et du Sud[1]. 
-Ne pas confondre avec le genre Erinus (en français les érines) de la famille des Plantaginaceae selon la classification classification phylogénétique APG III (2009)[2].
+La Lobélie érine (Lobelia erinus) est une plante vivace buissonnante ou retombante, de la famille des Campanulaceae, sous-famille des Lobelioideae, cultivée comme annuelle. Elle est originaire d'Afrique de l'Est et du Sud. 
+Ne pas confondre avec le genre Erinus (en français les érines) de la famille des Plantaginaceae selon la classification classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lob%C3%A9lie_%C3%A9rine</t>
+          <t>Lobélie_érine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De l'été à l'automne, elle produit des grappes légères, de 2 à 5 cm de long composées de fleurs de 0,5 à 1 cm de diamètre, tubulaires, à deux lèvres, bleues, violettes, blanches, roses ou rouges, avec un œil blanc ou jaune, avec des lèvres inférieures en éventail. Floraison : mai à octobre, hauteur : 10/25 cm. Rusticité : résiste au gel. 
 Sur les autres projets Wikimedia :
